--- a/DatasetMaliciousInjector/dataset70.xlsx
+++ b/DatasetMaliciousInjector/dataset70.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psko\source\repos\kpsaraftis\DatasetMaliciousInjector\DatasetMaliciousInjector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B408C30-298E-4406-B7F8-1FDD64340835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7663962-E063-49A3-9F6B-99A87DDE402A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OriginalValues" sheetId="3" r:id="rId1"/>
+    <sheet name="Evaluations" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -960,7 +960,7 @@
   <dimension ref="A1:EC71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
